--- a/biology/Zoologie/Chomatobatrachus/Chomatobatrachus.xlsx
+++ b/biology/Zoologie/Chomatobatrachus/Chomatobatrachus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chomatobatrachus halei
 Chomatobatrachus est un genre éteint d'amphibiens du Trias. Ce genre n'est représenté que par une seule espèce, Chomatobatrachus halei, décrite en 1974 par le paléontologue américain John W. Cosgriff (d) (1931-1985).
@@ -512,7 +524,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) John W. Cosgriff, « Lower Triassic Temnospondyli of Tasmania », The Geological Society of America, Special Paper, vol. 149,‎ 1974, p. 1-134.</t>
         </is>
@@ -542,9 +556,11 @@
           <t>Cladogramme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme suivant des Stereospondyli est basée selon Dias-da-Silva &amp; Marsicano (2011)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant des Stereospondyli est basée selon Dias-da-Silva &amp; Marsicano (2011) :
 </t>
         </is>
       </c>
